--- a/data/trans_bre/P3A_R-Provincia-trans_bre.xlsx
+++ b/data/trans_bre/P3A_R-Provincia-trans_bre.xlsx
@@ -637,7 +637,7 @@
         <v>38.31912800197637</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>34.20968894659521</v>
+        <v>34.20968894659519</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>1.176457893067021</v>
@@ -649,7 +649,7 @@
         <v>0.7487666786239232</v>
       </c>
       <c r="J4" s="6" t="n">
-        <v>0.5944158292548403</v>
+        <v>0.5944158292548399</v>
       </c>
     </row>
     <row r="5">
@@ -660,28 +660,28 @@
         </is>
       </c>
       <c r="C5" s="5" t="n">
-        <v>37.46970464630994</v>
+        <v>37.61360267954532</v>
       </c>
       <c r="D5" s="5" t="n">
-        <v>32.65719694886824</v>
+        <v>32.80612093806921</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>31.20921554146699</v>
+        <v>30.30006176179067</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>27.33761090442573</v>
+        <v>28.37237107611128</v>
       </c>
       <c r="G5" s="6" t="n">
-        <v>0.8581996560211298</v>
+        <v>0.8714871991152321</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.6226819995024176</v>
+        <v>0.632485107055619</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.5542152239629616</v>
+        <v>0.526081441783371</v>
       </c>
       <c r="J5" s="6" t="n">
-        <v>0.4384983899378651</v>
+        <v>0.4555515269951992</v>
       </c>
     </row>
     <row r="6">
@@ -692,28 +692,28 @@
         </is>
       </c>
       <c r="C6" s="5" t="n">
-        <v>51.96531665471748</v>
+        <v>52.34753187783163</v>
       </c>
       <c r="D6" s="5" t="n">
-        <v>47.71156056924508</v>
+        <v>47.40767714597021</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>45.63500248588303</v>
+        <v>45.61989264106349</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>40.03682665426423</v>
+        <v>40.52807714467352</v>
       </c>
       <c r="G6" s="6" t="n">
-        <v>1.553387447481722</v>
+        <v>1.579760467325644</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>1.13719940576107</v>
+        <v>1.137560289248995</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>1.012369575738207</v>
+        <v>1.012227149540999</v>
       </c>
       <c r="J6" s="6" t="n">
-        <v>0.7631496947319123</v>
+        <v>0.7775902639051243</v>
       </c>
     </row>
     <row r="7">
@@ -737,7 +737,7 @@
         <v>38.71750222938195</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>17.82591045981203</v>
+        <v>17.82591045981206</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>1.198150898179283</v>
@@ -749,7 +749,7 @@
         <v>0.817814754630112</v>
       </c>
       <c r="J7" s="6" t="n">
-        <v>0.2432243036318448</v>
+        <v>0.2432243036318451</v>
       </c>
     </row>
     <row r="8">
@@ -760,28 +760,28 @@
         </is>
       </c>
       <c r="C8" s="5" t="n">
-        <v>40.06750611690475</v>
+        <v>39.70465237194171</v>
       </c>
       <c r="D8" s="5" t="n">
-        <v>41.02785813960879</v>
+        <v>40.95639748949606</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>33.12638010838769</v>
+        <v>33.48081194313139</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>12.1768990914346</v>
+        <v>11.42129578637008</v>
       </c>
       <c r="G8" s="6" t="n">
-        <v>0.9497875475505475</v>
+        <v>0.9385712341880788</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.9969807424751981</v>
+        <v>0.9846202748131867</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.6461620516660518</v>
+        <v>0.6456088200980475</v>
       </c>
       <c r="J8" s="6" t="n">
-        <v>0.1572643069942668</v>
+        <v>0.1463318665550415</v>
       </c>
     </row>
     <row r="9">
@@ -792,28 +792,28 @@
         </is>
       </c>
       <c r="C9" s="5" t="n">
-        <v>50.86921898784617</v>
+        <v>51.12622121979751</v>
       </c>
       <c r="D9" s="5" t="n">
-        <v>52.50733623664537</v>
+        <v>52.01284186402145</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>43.93619659565653</v>
+        <v>44.50920739458532</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>23.29483174889043</v>
+        <v>22.87613253171149</v>
       </c>
       <c r="G9" s="6" t="n">
-        <v>1.487369952885821</v>
+        <v>1.494953522208235</v>
       </c>
       <c r="H9" s="6" t="n">
-        <v>1.555556583020784</v>
+        <v>1.566294685187454</v>
       </c>
       <c r="I9" s="6" t="n">
-        <v>1.018326624181896</v>
+        <v>1.047172438843587</v>
       </c>
       <c r="J9" s="6" t="n">
-        <v>0.3422423425004227</v>
+        <v>0.3322718474888153</v>
       </c>
     </row>
     <row r="10">
@@ -837,7 +837,7 @@
         <v>30.87653660150518</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>13.56045126810489</v>
+        <v>13.56045126810486</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>1.915895787986329</v>
@@ -849,7 +849,7 @@
         <v>0.5226545698586035</v>
       </c>
       <c r="J10" s="6" t="n">
-        <v>0.1779828821731915</v>
+        <v>0.177982882173191</v>
       </c>
     </row>
     <row r="11">
@@ -860,28 +860,28 @@
         </is>
       </c>
       <c r="C11" s="5" t="n">
-        <v>48.14655256704513</v>
+        <v>48.09839356221951</v>
       </c>
       <c r="D11" s="5" t="n">
-        <v>35.31836183084202</v>
+        <v>34.70622351170297</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>24.70557501240899</v>
+        <v>24.39736066206632</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>8.25611445321751</v>
+        <v>8.293980330206919</v>
       </c>
       <c r="G11" s="6" t="n">
-        <v>1.480018036778805</v>
+        <v>1.429636369283246</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.7659245208210675</v>
+        <v>0.7427829982477587</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.3863080912676717</v>
+        <v>0.3855837720353864</v>
       </c>
       <c r="J11" s="6" t="n">
-        <v>0.1044903734770851</v>
+        <v>0.104775775973154</v>
       </c>
     </row>
     <row r="12">
@@ -892,28 +892,28 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>60.90281138356808</v>
+        <v>60.64341507792291</v>
       </c>
       <c r="D12" s="5" t="n">
-        <v>48.61373224534833</v>
+        <v>48.60188986586594</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>36.68631379331049</v>
+        <v>36.79091984052009</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>19.49731473381823</v>
+        <v>19.39376872073642</v>
       </c>
       <c r="G12" s="6" t="n">
-        <v>2.558841370749328</v>
+        <v>2.537345297042544</v>
       </c>
       <c r="H12" s="6" t="n">
-        <v>1.320825736273834</v>
+        <v>1.316905879036081</v>
       </c>
       <c r="I12" s="6" t="n">
-        <v>0.6764099254249355</v>
+        <v>0.6784051296038366</v>
       </c>
       <c r="J12" s="6" t="n">
-        <v>0.2747047761913903</v>
+        <v>0.2678621699656413</v>
       </c>
     </row>
     <row r="13">
@@ -937,7 +937,7 @@
         <v>31.18326447984515</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>23.78785871102623</v>
+        <v>23.78785871102625</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>1.722709945284036</v>
@@ -949,7 +949,7 @@
         <v>0.6036912719338129</v>
       </c>
       <c r="J13" s="6" t="n">
-        <v>0.3684483021095119</v>
+        <v>0.3684483021095121</v>
       </c>
     </row>
     <row r="14">
@@ -960,28 +960,28 @@
         </is>
       </c>
       <c r="C14" s="5" t="n">
-        <v>45.37161973375385</v>
+        <v>45.6585087657145</v>
       </c>
       <c r="D14" s="5" t="n">
-        <v>28.38643487215884</v>
+        <v>27.99570362873546</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>24.28464933267858</v>
+        <v>24.72197982699403</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>16.68726608839878</v>
+        <v>15.68710780111054</v>
       </c>
       <c r="G14" s="6" t="n">
-        <v>1.294093257662417</v>
+        <v>1.329941999470373</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.5365635490130561</v>
+        <v>0.5269845222021936</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.4398003110384709</v>
+        <v>0.4440704073140505</v>
       </c>
       <c r="J14" s="6" t="n">
-        <v>0.2379293661864768</v>
+        <v>0.2209844878360652</v>
       </c>
     </row>
     <row r="15">
@@ -992,28 +992,28 @@
         </is>
       </c>
       <c r="C15" s="5" t="n">
-        <v>57.97118110122446</v>
+        <v>58.03594880567083</v>
       </c>
       <c r="D15" s="5" t="n">
-        <v>40.95721837405762</v>
+        <v>41.34827067409234</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>37.30946078730801</v>
+        <v>37.42218821784407</v>
       </c>
       <c r="F15" s="5" t="n">
-        <v>31.63388998713315</v>
+        <v>31.67177136452274</v>
       </c>
       <c r="G15" s="6" t="n">
-        <v>2.24972559080117</v>
+        <v>2.251430510677464</v>
       </c>
       <c r="H15" s="6" t="n">
-        <v>0.9366388516889781</v>
+        <v>0.9464460103413945</v>
       </c>
       <c r="I15" s="6" t="n">
-        <v>0.7983691773391508</v>
+        <v>0.8105022346243573</v>
       </c>
       <c r="J15" s="6" t="n">
-        <v>0.5492159517636236</v>
+        <v>0.5488954298759311</v>
       </c>
     </row>
     <row r="16">
@@ -1037,7 +1037,7 @@
         <v>35.73221747882879</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>6.311369158924151</v>
+        <v>6.311369158924174</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>1.403387769014058</v>
@@ -1049,7 +1049,7 @@
         <v>0.6219870986665278</v>
       </c>
       <c r="J16" s="6" t="n">
-        <v>0.07158716737723858</v>
+        <v>0.07158716737723886</v>
       </c>
     </row>
     <row r="17">
@@ -1060,28 +1060,28 @@
         </is>
       </c>
       <c r="C17" s="5" t="n">
-        <v>42.17176724030683</v>
+        <v>41.87530084586384</v>
       </c>
       <c r="D17" s="5" t="n">
-        <v>41.15087874093352</v>
+        <v>40.91620888722927</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>28.46613832011527</v>
+        <v>28.18236597765522</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>1.717243045172208</v>
+        <v>1.171890545814439</v>
       </c>
       <c r="G17" s="6" t="n">
-        <v>0.9988810059103491</v>
+        <v>0.9765008853386902</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>1.131116101413646</v>
+        <v>1.119001031226091</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.4526594320498468</v>
+        <v>0.4453123026815537</v>
       </c>
       <c r="J17" s="6" t="n">
-        <v>0.01932855275628231</v>
+        <v>0.01434708953829675</v>
       </c>
     </row>
     <row r="18">
@@ -1092,28 +1092,28 @@
         </is>
       </c>
       <c r="C18" s="5" t="n">
-        <v>58.06241625050221</v>
+        <v>58.70024908074557</v>
       </c>
       <c r="D18" s="5" t="n">
-        <v>58.03667322627229</v>
+        <v>58.12352808173488</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>44.17475904662277</v>
+        <v>43.13840892370829</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>11.60390971607192</v>
+        <v>11.13177711597466</v>
       </c>
       <c r="G18" s="6" t="n">
-        <v>1.910643178172204</v>
+        <v>1.905617380436218</v>
       </c>
       <c r="H18" s="6" t="n">
-        <v>2.354995141698898</v>
+        <v>2.411271776910064</v>
       </c>
       <c r="I18" s="6" t="n">
-        <v>0.8821566510856549</v>
+        <v>0.8564900863516988</v>
       </c>
       <c r="J18" s="6" t="n">
-        <v>0.1387489067770125</v>
+        <v>0.1338266959230448</v>
       </c>
     </row>
     <row r="19">
@@ -1137,7 +1137,7 @@
         <v>43.80065167044852</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>14.44225766529522</v>
+        <v>14.44225766529519</v>
       </c>
       <c r="G19" s="6" t="n">
         <v>2.264876582076005</v>
@@ -1149,7 +1149,7 @@
         <v>0.9948449696521229</v>
       </c>
       <c r="J19" s="6" t="n">
-        <v>0.1867036584185289</v>
+        <v>0.1867036584185285</v>
       </c>
     </row>
     <row r="20">
@@ -1160,28 +1160,28 @@
         </is>
       </c>
       <c r="C20" s="5" t="n">
-        <v>53.59118349490168</v>
+        <v>53.5283434778229</v>
       </c>
       <c r="D20" s="5" t="n">
-        <v>34.89224343289681</v>
+        <v>34.94177959840308</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>36.12782266738119</v>
+        <v>36.49787340114819</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>9.634301233815222</v>
+        <v>10.04674436462018</v>
       </c>
       <c r="G20" s="6" t="n">
-        <v>1.691084259464496</v>
+        <v>1.666485040260743</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.7037640476876182</v>
+        <v>0.7118536067167173</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.7388373480975924</v>
+        <v>0.7341719245277722</v>
       </c>
       <c r="J20" s="6" t="n">
-        <v>0.1178846144893638</v>
+        <v>0.1239440214379447</v>
       </c>
     </row>
     <row r="21">
@@ -1192,28 +1192,28 @@
         </is>
       </c>
       <c r="C21" s="5" t="n">
-        <v>66.8592194761565</v>
+        <v>66.91671460336958</v>
       </c>
       <c r="D21" s="5" t="n">
-        <v>49.89336249243561</v>
+        <v>49.83992047381245</v>
       </c>
       <c r="E21" s="5" t="n">
-        <v>51.36919133642059</v>
+        <v>51.25612150702835</v>
       </c>
       <c r="F21" s="5" t="n">
-        <v>20.24866455745701</v>
+        <v>19.91334341343766</v>
       </c>
       <c r="G21" s="6" t="n">
-        <v>3.039485699769175</v>
+        <v>3.037900601790007</v>
       </c>
       <c r="H21" s="6" t="n">
-        <v>1.287233267267231</v>
+        <v>1.323044874249842</v>
       </c>
       <c r="I21" s="6" t="n">
-        <v>1.33723515723046</v>
+        <v>1.338772645792573</v>
       </c>
       <c r="J21" s="6" t="n">
-        <v>0.2734135459485261</v>
+        <v>0.2719551696730094</v>
       </c>
     </row>
     <row r="22">
@@ -1260,28 +1260,28 @@
         </is>
       </c>
       <c r="C23" s="5" t="n">
-        <v>40.98096888207384</v>
+        <v>40.42167325361986</v>
       </c>
       <c r="D23" s="5" t="n">
-        <v>31.39116268322365</v>
+        <v>32.00727409808239</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>29.62149115326423</v>
+        <v>29.7599597521167</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>10.38666732423589</v>
+        <v>10.19428190890637</v>
       </c>
       <c r="G23" s="6" t="n">
-        <v>0.9223953214018412</v>
+        <v>0.9082002453537431</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>0.6408477732526168</v>
+        <v>0.6507294992854422</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>0.5224728469047435</v>
+        <v>0.5356415252211735</v>
       </c>
       <c r="J23" s="6" t="n">
-        <v>0.1360059577488855</v>
+        <v>0.1351826163862077</v>
       </c>
     </row>
     <row r="24">
@@ -1292,28 +1292,28 @@
         </is>
       </c>
       <c r="C24" s="5" t="n">
-        <v>50.70505403593523</v>
+        <v>50.27477913328451</v>
       </c>
       <c r="D24" s="5" t="n">
-        <v>41.56027040462752</v>
+        <v>42.35266238873974</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>39.62730057788826</v>
+        <v>39.39631674196789</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>20.0684311736388</v>
+        <v>19.80437471201951</v>
       </c>
       <c r="G24" s="6" t="n">
-        <v>1.377753924591328</v>
+        <v>1.347562482369597</v>
       </c>
       <c r="H24" s="6" t="n">
-        <v>0.9879679466707388</v>
+        <v>1.013309217743048</v>
       </c>
       <c r="I24" s="6" t="n">
-        <v>0.8068362281096834</v>
+        <v>0.8052376141418132</v>
       </c>
       <c r="J24" s="6" t="n">
-        <v>0.2918503165202112</v>
+        <v>0.2888221180575672</v>
       </c>
     </row>
     <row r="25">
@@ -1360,28 +1360,28 @@
         </is>
       </c>
       <c r="C26" s="5" t="n">
-        <v>46.30270412344969</v>
+        <v>45.91981904866228</v>
       </c>
       <c r="D26" s="5" t="n">
-        <v>31.74377912491401</v>
+        <v>31.55223108420548</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>24.91976495681453</v>
+        <v>24.52114647439446</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>45.34772336333771</v>
+        <v>45.35001846262679</v>
       </c>
       <c r="G26" s="6" t="n">
-        <v>1.346656792008025</v>
+        <v>1.325485406498135</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>0.6372001092854557</v>
+        <v>0.6374003813345785</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>0.4085776811171665</v>
+        <v>0.3990698452855845</v>
       </c>
       <c r="J26" s="6" t="n">
-        <v>0.9771522254122679</v>
+        <v>0.9759527298813583</v>
       </c>
     </row>
     <row r="27">
@@ -1392,28 +1392,28 @@
         </is>
       </c>
       <c r="C27" s="5" t="n">
-        <v>54.99123310102243</v>
+        <v>54.85132057420719</v>
       </c>
       <c r="D27" s="5" t="n">
-        <v>40.78588561532578</v>
+        <v>40.83029400302103</v>
       </c>
       <c r="E27" s="5" t="n">
-        <v>33.30371264510534</v>
+        <v>32.93542160718793</v>
       </c>
       <c r="F27" s="5" t="n">
-        <v>53.50564234195689</v>
+        <v>53.15426942173178</v>
       </c>
       <c r="G27" s="6" t="n">
-        <v>1.978397384062844</v>
+        <v>1.95173023161442</v>
       </c>
       <c r="H27" s="6" t="n">
-        <v>0.9372147231301491</v>
+        <v>0.9393097004809102</v>
       </c>
       <c r="I27" s="6" t="n">
-        <v>0.6034156087658268</v>
+        <v>0.5937247557060759</v>
       </c>
       <c r="J27" s="6" t="n">
-        <v>1.353157007816316</v>
+        <v>1.342226583865532</v>
       </c>
     </row>
     <row r="28">
@@ -1460,28 +1460,28 @@
         </is>
       </c>
       <c r="C29" s="5" t="n">
-        <v>47.79756877134323</v>
+        <v>47.63101433768679</v>
       </c>
       <c r="D29" s="5" t="n">
-        <v>37.59725639114482</v>
+        <v>37.64528737338964</v>
       </c>
       <c r="E29" s="5" t="n">
-        <v>32.37106202750736</v>
+        <v>32.1368944364745</v>
       </c>
       <c r="F29" s="5" t="n">
-        <v>23.27177402312205</v>
+        <v>23.13400404791</v>
       </c>
       <c r="G29" s="6" t="n">
-        <v>1.341216295503924</v>
+        <v>1.329736050061783</v>
       </c>
       <c r="H29" s="6" t="n">
-        <v>0.8325969498443565</v>
+        <v>0.8300952967021973</v>
       </c>
       <c r="I29" s="6" t="n">
-        <v>0.5942356427274974</v>
+        <v>0.5890848571112731</v>
       </c>
       <c r="J29" s="6" t="n">
-        <v>0.3480311888705003</v>
+        <v>0.3442563606962628</v>
       </c>
     </row>
     <row r="30">
@@ -1492,28 +1492,28 @@
         </is>
       </c>
       <c r="C30" s="5" t="n">
-        <v>51.87944953805014</v>
+        <v>51.78796518749205</v>
       </c>
       <c r="D30" s="5" t="n">
-        <v>41.88892295997069</v>
+        <v>42.06562315134375</v>
       </c>
       <c r="E30" s="5" t="n">
-        <v>36.50890048379221</v>
+        <v>36.39135717626836</v>
       </c>
       <c r="F30" s="5" t="n">
-        <v>27.17241778759495</v>
+        <v>27.20880241906897</v>
       </c>
       <c r="G30" s="6" t="n">
-        <v>1.590282310516077</v>
+        <v>1.576230975101897</v>
       </c>
       <c r="H30" s="6" t="n">
-        <v>0.9967610095058264</v>
+        <v>1.000114390940043</v>
       </c>
       <c r="I30" s="6" t="n">
-        <v>0.7100578150720971</v>
+        <v>0.7057409898877325</v>
       </c>
       <c r="J30" s="6" t="n">
-        <v>0.4261865116735543</v>
+        <v>0.4259763048467824</v>
       </c>
     </row>
     <row r="31">
